--- a/output/2_3_0/nomogram_config_2_3_0.xlsx
+++ b/output/2_3_0/nomogram_config_2_3_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>feature</t>
   </si>
@@ -79,12 +79,6 @@
     <t>CountDeclMethodDefault</t>
   </si>
   <si>
-    <t>CountDeclMethodPrivate</t>
-  </si>
-  <si>
-    <t>CountDeclMethodProtected</t>
-  </si>
-  <si>
     <t>MaxCyclomatic</t>
   </si>
   <si>
@@ -115,10 +109,10 @@
     <t>CountOutputMax</t>
   </si>
   <si>
-    <t>CountPathMin</t>
-  </si>
-  <si>
-    <t>CountPathMean-divided-by-1,000</t>
+    <t>CountPathMin-divided-by-1,000</t>
+  </si>
+  <si>
+    <t>CountPathMean-divided-by-1,000,000</t>
   </si>
   <si>
     <t>CountPathMax-divided-by-1,000,000</t>
@@ -462,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-4.3988</v>
+        <v>-0.2813</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -509,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0585</v>
+        <v>-0.0118</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -526,7 +520,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.2931</v>
+        <v>0.0401</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -543,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.199</v>
+        <v>0.1087</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -560,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-1.5666</v>
+        <v>-0.06850000000000001</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -577,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1.8581</v>
+        <v>-0.0743</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -594,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0448</v>
+        <v>-0.1503</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -611,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.2394</v>
+        <v>-0.3107</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -628,13 +622,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0139</v>
+        <v>0.0137</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -645,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-3.1753</v>
+        <v>-0.0211</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -662,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0011</v>
+        <v>0.0003</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -679,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0272</v>
+        <v>-0.0051</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -696,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0233</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -713,13 +707,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0319</v>
+        <v>0.0357</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>614</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -730,13 +724,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.0219</v>
+        <v>-0.3762</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -747,13 +741,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0118</v>
+        <v>-0.0055</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -764,13 +758,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.3347</v>
+        <v>-0.3733</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -781,13 +775,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0039</v>
+        <v>0.0035</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -798,13 +792,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-1.0759</v>
+        <v>-0.0732</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.699999999999999</v>
+        <v>56.5</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -815,13 +809,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0267</v>
+        <v>0.0022</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>413</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -832,13 +826,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.057</v>
+        <v>-0.06</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>56.5</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -849,13 +843,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0054</v>
+        <v>0.0031</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -866,13 +860,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.2909</v>
+        <v>0.0156</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -883,13 +877,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2079</v>
+        <v>0.0299</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>73</v>
+        <v>1363</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -900,13 +894,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0046</v>
+        <v>0.0499</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -917,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0372</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>464</v>
+        <v>1000</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -934,13 +928,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0003</v>
+        <v>0.0226</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>50000</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -951,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0032</v>
+        <v>0.0306</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -968,49 +962,15 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>-3.325</v>
+        <v>-0.0698</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>-0.8391999999999999</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.097</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
         <v>9</v>
       </c>
     </row>

--- a/output/2_3_0/nomogram_config_2_3_0.xlsx
+++ b/output/2_3_0/nomogram_config_2_3_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>feature</t>
   </si>
@@ -46,18 +46,9 @@
     <t>continuous</t>
   </si>
   <si>
-    <t>AvgCountLineBlank</t>
-  </si>
-  <si>
     <t>AvgCountLineComment</t>
   </si>
   <si>
-    <t>AvgCyclomatic</t>
-  </si>
-  <si>
-    <t>AvgCyclomaticModified</t>
-  </si>
-  <si>
     <t>AvgEssential</t>
   </si>
   <si>
@@ -73,12 +64,6 @@
     <t>CountDeclClass</t>
   </si>
   <si>
-    <t>CountDeclClassMethod</t>
-  </si>
-  <si>
-    <t>CountDeclMethodDefault</t>
-  </si>
-  <si>
     <t>MaxCyclomatic</t>
   </si>
   <si>
@@ -103,16 +88,13 @@
     <t>CountOutputMin</t>
   </si>
   <si>
-    <t>CountOutputMean</t>
-  </si>
-  <si>
     <t>CountOutputMax</t>
   </si>
   <si>
-    <t>CountPathMin-divided-by-1,000</t>
-  </si>
-  <si>
-    <t>CountPathMean-divided-by-1,000,000</t>
+    <t>CountPathMin</t>
+  </si>
+  <si>
+    <t>CountPathMean-divided-by-100,000</t>
   </si>
   <si>
     <t>CountPathMax-divided-by-1,000,000</t>
@@ -456,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2813</v>
+        <v>-4.4002</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -503,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0118</v>
+        <v>-0.0069</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -520,13 +502,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0401</v>
+        <v>0.0974</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -537,13 +519,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1087</v>
+        <v>-0.1277</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -554,13 +536,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.06850000000000001</v>
+        <v>-0.313</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -571,13 +553,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0743</v>
+        <v>0.0254</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -588,13 +570,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.1503</v>
+        <v>-2.3167</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -605,13 +587,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.3107</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>2457</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -622,13 +604,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0137</v>
+        <v>0.0247</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -639,13 +621,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0211</v>
+        <v>-0.3651</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -656,13 +638,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0003</v>
+        <v>0.0028</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2457</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -673,13 +655,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0051</v>
+        <v>-0.0018</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>920</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -690,13 +672,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008999999999999999</v>
+        <v>-0.1923</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>473</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -707,13 +689,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0357</v>
+        <v>-0.08119999999999999</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>145</v>
+        <v>56.5</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -724,13 +706,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.3762</v>
+        <v>0.0016</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>413</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -741,13 +723,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.0055</v>
+        <v>-0.2663</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -758,13 +740,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.3733</v>
+        <v>0.018</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.699999999999999</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -775,13 +757,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0035</v>
+        <v>0.027</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>464</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -792,13 +774,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0732</v>
+        <v>0.02</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>56.5</v>
+        <v>500</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -809,13 +791,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0022</v>
+        <v>-0.0024</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>413</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -826,13 +808,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.06</v>
+        <v>-2.266</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -843,13 +825,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0031</v>
+        <v>0.3066</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -860,117 +842,15 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0156</v>
+        <v>0.0376</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.0299</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1363</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.0499</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>200</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1000</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.0226</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.0306</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>-0.0698</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
         <v>9</v>
       </c>
     </row>

--- a/output/2_3_0/nomogram_config_2_3_0.xlsx
+++ b/output/2_3_0/nomogram_config_2_3_0.xlsx
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-4.4002</v>
+        <v>-0.8786</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0069</v>
+        <v>-0.0348</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0974</v>
+        <v>0.1918</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1277</v>
+        <v>-0.4255</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.313</v>
+        <v>-0.6541</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0254</v>
+        <v>0.0443</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-2.3167</v>
+        <v>-0.2141</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.06850000000000001</v>
+        <v>0.0057</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0247</v>
+        <v>0.0475</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.3651</v>
+        <v>-1.1992</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0028</v>
+        <v>-0.0115</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0018</v>
+        <v>-1.084</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.1923</v>
+        <v>-0.227</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.08119999999999999</v>
+        <v>-0.1722</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0016</v>
+        <v>0.0041</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.2663</v>
+        <v>0.0404</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.018</v>
+        <v>0.01</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.027</v>
+        <v>-0.2572</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02</v>
+        <v>0.0175</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0024</v>
+        <v>-0.0021</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-2.266</v>
+        <v>0.0852</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3066</v>
+        <v>0.0437</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0376</v>
+        <v>-0.0092</v>
       </c>
       <c r="C25">
         <v>0</v>
